--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H2">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N2">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q2">
-        <v>161.2921598543485</v>
+        <v>2093.939465364517</v>
       </c>
       <c r="R2">
-        <v>161.2921598543485</v>
+        <v>18845.45518828066</v>
       </c>
       <c r="S2">
-        <v>0.03234232060239925</v>
+        <v>0.1994979617517516</v>
       </c>
       <c r="T2">
-        <v>0.03234232060239925</v>
+        <v>0.1994979617517516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H3">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N3">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q3">
-        <v>47.58986870277641</v>
+        <v>342.42428839184</v>
       </c>
       <c r="R3">
-        <v>47.58986870277641</v>
+        <v>3081.81859552656</v>
       </c>
       <c r="S3">
-        <v>0.009542725402159615</v>
+        <v>0.0326241272579358</v>
       </c>
       <c r="T3">
-        <v>0.009542725402159615</v>
+        <v>0.03262412725793579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H4">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I4">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J4">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N4">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q4">
-        <v>83.93563231703229</v>
+        <v>637.2373038174187</v>
       </c>
       <c r="R4">
-        <v>83.93563231703229</v>
+        <v>5735.135734356767</v>
       </c>
       <c r="S4">
-        <v>0.01683078168718176</v>
+        <v>0.06071213870627635</v>
       </c>
       <c r="T4">
-        <v>0.01683078168718176</v>
+        <v>0.06071213870627633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H5">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I5">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J5">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N5">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q5">
-        <v>105.7071030458241</v>
+        <v>757.6530356597228</v>
       </c>
       <c r="R5">
-        <v>105.7071030458241</v>
+        <v>6818.877320937504</v>
       </c>
       <c r="S5">
-        <v>0.02119639925304605</v>
+        <v>0.07218462559653287</v>
       </c>
       <c r="T5">
-        <v>0.02119639925304605</v>
+        <v>0.07218462559653285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H6">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J6">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N6">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q6">
-        <v>585.108229706167</v>
+        <v>1146.472207794135</v>
       </c>
       <c r="R6">
-        <v>585.108229706167</v>
+        <v>10318.24987014722</v>
       </c>
       <c r="S6">
-        <v>0.1173259628325879</v>
+        <v>0.109228978412776</v>
       </c>
       <c r="T6">
-        <v>0.1173259628325879</v>
+        <v>0.109228978412776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H7">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J7">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N7">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q7">
-        <v>172.6384211965136</v>
+        <v>187.4838964585767</v>
       </c>
       <c r="R7">
-        <v>172.6384211965136</v>
+        <v>1687.35506812719</v>
       </c>
       <c r="S7">
-        <v>0.0346174741021</v>
+        <v>0.01786233834522593</v>
       </c>
       <c r="T7">
-        <v>0.0346174741021</v>
+        <v>0.01786233834522592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H8">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J8">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N8">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q8">
-        <v>304.4873928071615</v>
+        <v>348.8997034922202</v>
       </c>
       <c r="R8">
-        <v>304.4873928071615</v>
+        <v>3140.097331429982</v>
       </c>
       <c r="S8">
-        <v>0.06105584354782506</v>
+        <v>0.03324106587311085</v>
       </c>
       <c r="T8">
-        <v>0.06105584354782506</v>
+        <v>0.03324106587311084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H9">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J9">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N9">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O9">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P9">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q9">
-        <v>383.4662266681897</v>
+        <v>414.8296371039163</v>
       </c>
       <c r="R9">
-        <v>383.4662266681897</v>
+        <v>3733.466733935246</v>
       </c>
       <c r="S9">
-        <v>0.07689268749512949</v>
+        <v>0.03952247352195708</v>
       </c>
       <c r="T9">
-        <v>0.07689268749512949</v>
+        <v>0.03952247352195707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H10">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I10">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J10">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N10">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O10">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P10">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q10">
-        <v>916.0774045781319</v>
+        <v>1835.4373319847</v>
       </c>
       <c r="R10">
-        <v>916.0774045781319</v>
+        <v>16518.93598786231</v>
       </c>
       <c r="S10">
-        <v>0.1836919360633199</v>
+        <v>0.1748694328134638</v>
       </c>
       <c r="T10">
-        <v>0.1836919360633199</v>
+        <v>0.1748694328134638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H11">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I11">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J11">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N11">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O11">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P11">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q11">
-        <v>270.2921421898122</v>
+        <v>300.1511422314533</v>
       </c>
       <c r="R11">
-        <v>270.2921421898122</v>
+        <v>2701.36028008308</v>
       </c>
       <c r="S11">
-        <v>0.05419900835171627</v>
+        <v>0.02859659607313962</v>
       </c>
       <c r="T11">
-        <v>0.05419900835171627</v>
+        <v>0.02859659607313962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H12">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I12">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J12">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N12">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O12">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P12">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q12">
-        <v>476.7220940809931</v>
+        <v>558.5687437989803</v>
       </c>
       <c r="R12">
-        <v>476.7220940809931</v>
+        <v>5027.118694190824</v>
       </c>
       <c r="S12">
-        <v>0.09559236368920715</v>
+        <v>0.05321707132862811</v>
       </c>
       <c r="T12">
-        <v>0.09559236368920715</v>
+        <v>0.05321707132862811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H13">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I13">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J13">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N13">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O13">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P13">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q13">
-        <v>600.3756704054139</v>
+        <v>664.1188483924525</v>
       </c>
       <c r="R13">
-        <v>600.3756704054139</v>
+        <v>5977.069635532072</v>
       </c>
       <c r="S13">
-        <v>0.1203873916231693</v>
+        <v>0.06327325063914903</v>
       </c>
       <c r="T13">
-        <v>0.1203873916231693</v>
+        <v>0.06327325063914901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H14">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I14">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J14">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N14">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O14">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P14">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q14">
-        <v>355.8886814419822</v>
+        <v>660.6751397393031</v>
       </c>
       <c r="R14">
-        <v>355.8886814419822</v>
+        <v>5946.076257653727</v>
       </c>
       <c r="S14">
-        <v>0.07136283526958674</v>
+        <v>0.06294515478512175</v>
       </c>
       <c r="T14">
-        <v>0.07136283526958674</v>
+        <v>0.06294515478512175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H15">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I15">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J15">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N15">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O15">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P15">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q15">
-        <v>105.0063167231593</v>
+        <v>108.04095262803</v>
       </c>
       <c r="R15">
-        <v>105.0063167231593</v>
+        <v>972.36857365227</v>
       </c>
       <c r="S15">
-        <v>0.02105587750703019</v>
+        <v>0.01029349233420049</v>
       </c>
       <c r="T15">
-        <v>0.02105587750703019</v>
+        <v>0.01029349233420049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H16">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I16">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J16">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N16">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O16">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P16">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q16">
-        <v>185.2026877083343</v>
+        <v>201.059701920934</v>
       </c>
       <c r="R16">
-        <v>185.2026877083343</v>
+        <v>1809.537317288406</v>
       </c>
       <c r="S16">
-        <v>0.03713686212459437</v>
+        <v>0.01915575946062914</v>
       </c>
       <c r="T16">
-        <v>0.03713686212459437</v>
+        <v>0.01915575946062914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H17">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I17">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J17">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N17">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O17">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P17">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q17">
-        <v>233.2411045645491</v>
+        <v>239.053006778902</v>
       </c>
       <c r="R17">
-        <v>233.2411045645491</v>
+        <v>2151.477061010118</v>
       </c>
       <c r="S17">
-        <v>0.04676953044894696</v>
+        <v>0.0227755331001016</v>
       </c>
       <c r="T17">
-        <v>0.04676953044894696</v>
+        <v>0.0227755331001016</v>
       </c>
     </row>
   </sheetData>
